--- a/ProjectJournal/Sprint Task Sheet - Team Hyrda.xlsx
+++ b/ProjectJournal/Sprint Task Sheet - Team Hyrda.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamHydra_Starbucks\ProjectJournal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD08E8D3-050C-4329-9346-E768795FCF63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875F3232-35A8-4007-BFB7-7695C2278CF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,18 +141,6 @@
     <t>Chaitrali + Prathyusha</t>
   </si>
   <si>
-    <t>Authentication</t>
-  </si>
-  <si>
-    <t>Add Cards</t>
-  </si>
-  <si>
-    <t>Managed Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payments </t>
-  </si>
-  <si>
     <t>Demo Presentations</t>
   </si>
   <si>
@@ -169,6 +157,18 @@
   </si>
   <si>
     <t>20 hours / Week</t>
+  </si>
+  <si>
+    <t>Payments and Store API</t>
+  </si>
+  <si>
+    <t>Managed Order API</t>
+  </si>
+  <si>
+    <t>Add Cards API</t>
+  </si>
+  <si>
+    <t>Authentication API</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1329,7 @@
   <dimension ref="A1:T1002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1376,7 +1376,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>5</v>
@@ -1592,7 +1592,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>34</v>
@@ -1646,7 +1646,7 @@
     <row r="7" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>34</v>
@@ -1700,7 +1700,7 @@
     <row r="8" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="29" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>32</v>
@@ -1754,7 +1754,7 @@
     <row r="9" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>32</v>
@@ -1808,7 +1808,7 @@
     <row r="10" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
       <c r="B10" s="29" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>33</v>
@@ -1862,7 +1862,7 @@
     <row r="11" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="32" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>33</v>
@@ -1916,7 +1916,7 @@
     <row r="12" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>31</v>
@@ -1972,7 +1972,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>31</v>
@@ -2026,7 +2026,7 @@
     <row r="14" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>35</v>
@@ -2080,7 +2080,7 @@
     <row r="15" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>36</v>
@@ -2180,7 +2180,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -2206,7 +2206,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -2232,7 +2232,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -2258,7 +2258,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>

--- a/ProjectJournal/Sprint Task Sheet - Team Hyrda.xlsx
+++ b/ProjectJournal/Sprint Task Sheet - Team Hyrda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamHydra_Starbucks\ProjectJournal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875F3232-35A8-4007-BFB7-7695C2278CF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBB33CF-6D0A-419B-9E77-F222517145C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,13 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
-  <si>
-    <t>Week #1 (10 hrs / week)</t>
-  </si>
-  <si>
-    <t>Week #2 (10 hrs / week)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Backlog Item</t>
   </si>
@@ -93,30 +87,6 @@
     <t>Remaining Hrs (Total)</t>
   </si>
   <si>
-    <t>Enable all users to place book in shopping cart</t>
-  </si>
-  <si>
-    <t>Sanjay</t>
-  </si>
-  <si>
-    <t>Jing</t>
-  </si>
-  <si>
-    <t>Phillip</t>
-  </si>
-  <si>
-    <t>Tracy</t>
-  </si>
-  <si>
-    <t>Sarah</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Upgrade Transaction Processing Module (Must be able to support 500 Transactions/Sec</t>
-  </si>
-  <si>
     <t>Team:</t>
   </si>
   <si>
@@ -169,6 +139,18 @@
   </si>
   <si>
     <t>Authentication API</t>
+  </si>
+  <si>
+    <t>REST API for Starbucks</t>
+  </si>
+  <si>
+    <t>Documentation + Presentation</t>
+  </si>
+  <si>
+    <t>Week #1 (20 hrs / week)</t>
+  </si>
+  <si>
+    <t>Week #2 (20 hrs / week)</t>
   </si>
 </sst>
 </file>
@@ -1328,8 +1310,8 @@
   </sheetPr>
   <dimension ref="A1:T1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1347,7 +1329,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="41" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -1356,7 +1338,7 @@
       <c r="J1" s="34"/>
       <c r="K1" s="35"/>
       <c r="L1" s="33" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
@@ -1367,58 +1349,58 @@
     </row>
     <row r="2" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="D2" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="R2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1531,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1584,18 +1566,18 @@
         <v>0</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D6" s="18">
         <v>40</v>
@@ -1646,10 +1628,10 @@
     <row r="7" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="30" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D7" s="18">
         <v>20</v>
@@ -1700,10 +1682,10 @@
     <row r="8" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="29" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D8" s="18">
         <v>40</v>
@@ -1754,10 +1736,10 @@
     <row r="9" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="30" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D9" s="18">
         <v>20</v>
@@ -1808,10 +1790,10 @@
     <row r="10" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
       <c r="B10" s="29" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D10" s="18">
         <v>20</v>
@@ -1862,10 +1844,10 @@
     <row r="11" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="32" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D11" s="18">
         <v>20</v>
@@ -1916,10 +1898,10 @@
     <row r="12" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="29" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D12" s="18">
         <v>40</v>
@@ -1969,13 +1951,13 @@
     </row>
     <row r="13" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D13" s="18">
         <v>10</v>
@@ -2026,10 +2008,10 @@
     <row r="14" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="32" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D14" s="18">
         <v>10</v>
@@ -2080,10 +2062,10 @@
     <row r="15" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="32" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D15" s="18">
         <v>20</v>
@@ -2153,7 +2135,7 @@
     </row>
     <row r="17" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -2177,10 +2159,10 @@
     </row>
     <row r="18" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -2203,10 +2185,10 @@
     </row>
     <row r="19" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -2232,7 +2214,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -2255,10 +2237,10 @@
     </row>
     <row r="21" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -2280,9 +2262,7 @@
       <c r="T21" s="21"/>
     </row>
     <row r="22" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>26</v>
-      </c>
+      <c r="A22" s="23"/>
       <c r="B22" s="24"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -2304,9 +2284,7 @@
       <c r="T22" s="21"/>
     </row>
     <row r="23" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>27</v>
-      </c>
+      <c r="A23" s="23"/>
       <c r="B23" s="24"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -2329,7 +2307,7 @@
     </row>
     <row r="24" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B24" s="25">
         <v>160</v>

--- a/ProjectJournal/Sprint Task Sheet - Team Hyrda.xlsx
+++ b/ProjectJournal/Sprint Task Sheet - Team Hyrda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamHydra_Starbucks\ProjectJournal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBB33CF-6D0A-419B-9E77-F222517145C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56143338-881A-424E-B5B4-4F09B13E6AA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint" sheetId="1" r:id="rId1"/>
@@ -577,7 +577,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Burndown (Team XXX)</a:t>
+              <a:t>Burndown (Team Hydra)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1310,7 +1310,7 @@
   </sheetPr>
   <dimension ref="A1:T1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -21915,8 +21915,8 @@
   </sheetPr>
   <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
